--- a/BackTest/2019-11-14 BackTest XVG.xlsx
+++ b/BackTest/2019-11-14 BackTest XVG.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.5600000000000014</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>5.454545454545332</v>
+      </c>
       <c r="L12" t="n">
         <v>4.564</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.6700000000000008</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-13.84615384615382</v>
+      </c>
       <c r="L13" t="n">
         <v>4.556</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.7300000000000004</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-4.225352112676092</v>
+      </c>
       <c r="L14" t="n">
         <v>4.553</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.7400000000000002</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-2.857142857142799</v>
+      </c>
       <c r="L15" t="n">
         <v>4.549</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.8200000000000003</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-1.449275362318811</v>
+      </c>
       <c r="L16" t="n">
         <v>4.539</v>
       </c>
